--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/Dropbox/Docencia/ROBOTICS/Physical_Computing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documentos\GitHub\Velocista\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="7760" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tienda.bricogeek.com" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="es.farnell.com" sheetId="5" r:id="rId3"/>
     <sheet name="www.electan.com" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Component</t>
   </si>
@@ -54,13 +54,166 @@
   </si>
   <si>
     <t>TOTAL DEL PROJECTE (automàtic)</t>
+  </si>
+  <si>
+    <t>Controlador de motores TB6612FNG</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/controladores-motores/999-controlador-de-motores-tb6612fng.html</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/convertidores-de-voltaje/1003-conversor-dc-ajustable-4-12v-2a-s18v20alv.html</t>
+  </si>
+  <si>
+    <t>Conversor DC ajustable 4-12V (2A) S18V20ALV</t>
+  </si>
+  <si>
+    <t>Motor Micro Metal LP con reductora 10:1</t>
+  </si>
+  <si>
+    <t>Arduino Pro Mini 328 - 5V/16MHz</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/arduino/233-arduino-pro-mini-328-5v-16mhz.html</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/motores/113-motor-micro-metal-lp-con-reductora-10-1.html</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/conversores-serie-usb/295-conversor-serie-usb-ftdi232.html</t>
+  </si>
+  <si>
+    <t>Conversor Serie-USB FTDI232</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/shields-arduino/982-bricogeek-pro-mini-screw-shield.html</t>
+  </si>
+  <si>
+    <t>BricoGeek Pro Mini Screw Shield</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/componentes/126-barra-de-contactos-de-40-pines.html</t>
+  </si>
+  <si>
+    <t>Barra de contactos de 40 pines</t>
+  </si>
+  <si>
+    <t>Set de cables Macho / Macho 15cm (10 Unid.)</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/herramientas-de-prototipado/172-set-de-cables-m-m-10-unid.html</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/accesorios-motores/932-encoders-para-motores-micro-metal-12cpr.html</t>
+  </si>
+  <si>
+    <t>Encoders para motores micro metal (12CPR)</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/ruedas-robotica/1008-rueda-solarbotics-rw2i.html</t>
+  </si>
+  <si>
+    <t>Rueda Solarbotics RW2i</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/tornillos-y-tuercas/768-surtido-de-tornillos-y-tuercas-m3.html</t>
+  </si>
+  <si>
+    <t>Surtido de tornillos y tuercas M3</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/sensores/34-acelerometro-3-ejes-adxl335-3g.html</t>
+  </si>
+  <si>
+    <t>Acelerometro 3 ejes ADXL335 +/- 3G</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/diodos-led/864-pack-leds-de-colores-5mm-20-unidades.html</t>
+  </si>
+  <si>
+    <t>Pack LEDs de colores (5mm - 20 unidades)</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/componentes/85-mini-boton-pulsador-switch.html</t>
+  </si>
+  <si>
+    <t>CMP-0002</t>
+  </si>
+  <si>
+    <t>LED-0038</t>
+  </si>
+  <si>
+    <t>Mini boton pulsador Switch</t>
+  </si>
+  <si>
+    <t>Kit de resistencias 1/4W</t>
+  </si>
+  <si>
+    <t>PRO-0022</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/modulos-bluetooth/800-modulo-bluetooth-hc-05.html</t>
+  </si>
+  <si>
+    <t>Modulo Bluetooth HC-05</t>
+  </si>
+  <si>
+    <t>BLT-0008</t>
+  </si>
+  <si>
+    <t>DCM-0032</t>
+  </si>
+  <si>
+    <t>PRO-0168</t>
+  </si>
+  <si>
+    <t>DCM-0002</t>
+  </si>
+  <si>
+    <t>ARD-0021</t>
+  </si>
+  <si>
+    <t>USB-0005</t>
+  </si>
+  <si>
+    <t>BGK-0002</t>
+  </si>
+  <si>
+    <t>CMP-0009</t>
+  </si>
+  <si>
+    <t>PRO-0021</t>
+  </si>
+  <si>
+    <t>RUE-0010</t>
+  </si>
+  <si>
+    <t>RUE-0012</t>
+  </si>
+  <si>
+    <t>PRO-0131</t>
+  </si>
+  <si>
+    <t>ACC-0003</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/varios/175-kit-de-resistencias-1-4w.html</t>
+  </si>
+  <si>
+    <t>http://tienda.bricogeek.com/placas-raspberry-pi/1027-raspberry-pi-zero-wifi-starter-kit.html</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero Wifi Starter Kit</t>
+  </si>
+  <si>
+    <t>RSP-0041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +277,13 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,7 +431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,8 +441,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -308,16 +469,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+  <cellStyles count="10">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -325,6 +491,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,21 +762,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="2" max="2" width="46.296875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875"/>
+    <col min="5" max="6" width="11.19921875"/>
+    <col min="7" max="7" width="91.796875" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -617,24 +788,26 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22">
-        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!E15+www.electan.com!E15</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
+        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!F25+www.electan.com!E15</f>
+        <v>361.71000000000015</v>
+      </c>
+      <c r="D2" s="24"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -644,8 +817,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -657,8 +831,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -668,149 +843,528 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <f>D7*E7</f>
+        <v>11.98</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3">
+        <v>16.82</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9*E9</f>
+        <v>33.64</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14.46</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <f>D10*E10</f>
+        <v>28.92</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3">
+        <v>16.82</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <f>D11*E11</f>
+        <v>16.82</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <f>D12*E12</f>
+        <v>15.74</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <f>D13*E13</f>
+        <v>3.88</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
         <v>8</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="26">
+        <v>3.03</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <f>D14*E14</f>
+        <v>6.06</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <f>D15*E15</f>
+        <v>46</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8">
+        <f>D16*E16</f>
+        <v>19.12</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15.61</v>
+      </c>
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="F17" s="23">
+        <f>D17*E17</f>
+        <v>15.61</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
+        <f>D18*E18</f>
+        <v>38.479999999999997</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>4.72</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <f>D19*E19</f>
+        <v>4.72</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23">
+        <f>D20*E20</f>
+        <v>1.92</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3">
+        <v>13.92</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23">
+        <f>D21*E21</f>
+        <v>13.92</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <f>D22*E22</f>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>48.28</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <f>D23*E23</f>
+        <v>48.28</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="25" spans="1:10" s="15" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
+        <f>SUM(F7:F24)</f>
+        <v>361.71000000000015</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G10" r:id="rId4"/>
+    <hyperlink ref="G11" r:id="rId5"/>
+    <hyperlink ref="G12" r:id="rId6"/>
+    <hyperlink ref="G13" r:id="rId7"/>
+    <hyperlink ref="G14" r:id="rId8"/>
+    <hyperlink ref="G15" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G17" r:id="rId11"/>
+    <hyperlink ref="G18" r:id="rId12"/>
+    <hyperlink ref="G19" r:id="rId13"/>
+    <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="G21" r:id="rId15"/>
+    <hyperlink ref="G22" r:id="rId16"/>
+    <hyperlink ref="G23" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -822,15 +1376,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="2" max="2" width="22.296875" customWidth="1"/>
+    <col min="3" max="5" width="11.19921875"/>
+    <col min="6" max="6" width="50.796875" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -841,14 +1396,14 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22">
-        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!E15+www.electan.com!E15</f>
-        <v>0</v>
+        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!F25+www.electan.com!E15</f>
+        <v>361.71000000000015</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -857,7 +1412,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -868,7 +1423,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -881,7 +1436,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -892,7 +1447,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -915,7 +1470,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -928,7 +1483,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -941,7 +1496,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -954,7 +1509,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -967,7 +1522,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -980,7 +1535,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -993,7 +1548,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1006,7 +1561,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1019,7 +1574,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="15" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1043,19 +1598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.83203125" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="2" max="2" width="22.296875" customWidth="1"/>
+    <col min="3" max="5" width="11.19921875"/>
+    <col min="6" max="6" width="50.796875" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1066,14 +1622,14 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22">
-        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!E15+www.electan.com!E15</f>
-        <v>0</v>
+        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!F25+www.electan.com!E15</f>
+        <v>361.71000000000015</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1082,7 +1638,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1093,7 +1649,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1662,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1117,7 +1673,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1696,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1153,7 +1709,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1166,7 +1722,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1179,7 +1735,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1192,7 +1748,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1205,7 +1761,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1218,7 +1774,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1231,7 +1787,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1244,7 +1800,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="15" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1270,13 +1826,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1287,14 +1843,14 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22">
-        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!E15+www.electan.com!E15</f>
-        <v>0</v>
+        <f>es.farnell.com!E15+www.diotronic.com!E15+tienda.bricogeek.com!F25+www.electan.com!E15</f>
+        <v>361.71000000000015</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1303,7 +1859,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1314,7 +1870,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1883,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1338,7 +1894,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1917,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1374,7 +1930,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1387,7 +1943,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1400,7 +1956,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1413,7 +1969,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1426,7 +1982,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1439,7 +1995,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1452,7 +2008,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1465,7 +2021,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="19" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
